--- a/SupplementalFig8/variants_in_heatmap_Supp8v25.xlsx
+++ b/SupplementalFig8/variants_in_heatmap_Supp8v25.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="1069">
   <si>
     <t xml:space="preserve">Variant_Name_New_Cut</t>
   </si>
@@ -1802,6 +1802,9 @@
     <t xml:space="preserve">Omicron: L707F</t>
   </si>
   <si>
+    <t xml:space="preserve">B.1.1.529+L708V</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omicron: L708V</t>
   </si>
   <si>
@@ -2153,18 +2156,6 @@
     <t xml:space="preserve">Omicron BA.2/3: V503V</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.529 (BA.2/BA.3)+I606I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I606I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omicron BA.2/3: I606I</t>
-  </si>
-  <si>
     <t xml:space="preserve">B.1.1.529 (BA.2/BA.3)+T678T</t>
   </si>
   <si>
@@ -2828,18 +2819,6 @@
     <t xml:space="preserve">Omicron BA.4/5: V503V</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.529 (BA.4/BA.5)+A576V+T577N+T577N+A672G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A576V+T577N+T577N+A672G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omicron BA.4/5: A576V+T577N+T577N+A672G</t>
-  </si>
-  <si>
     <t xml:space="preserve">B.1.1.529 (BA.4/BA.5)+A672G</t>
   </si>
   <si>
@@ -3084,6 +3063,9 @@
   </si>
   <si>
     <t xml:space="preserve">Omicron BA.4/5: T701C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.529 (BA.4/BA.5)+A702Stop</t>
   </si>
   <si>
     <t xml:space="preserve">Omicron BA.4/5: A702Stop</t>
@@ -7216,7 +7198,7 @@
         <v>413</v>
       </c>
       <c r="C141" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
         <v>93</v>
@@ -8981,7 +8963,7 @@
         <v>435</v>
       </c>
       <c r="B209" t="s">
-        <v>423</v>
+        <v>596</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -8996,10 +8978,10 @@
         <v>192</v>
       </c>
       <c r="G209" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H209" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="210">
@@ -9007,25 +8989,25 @@
         <v>435</v>
       </c>
       <c r="B210" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C210" t="n">
         <v>12</v>
       </c>
       <c r="D210" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E210" t="n">
         <v>7</v>
       </c>
       <c r="F210" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G210" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H210" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="211">
@@ -9033,25 +9015,25 @@
         <v>435</v>
       </c>
       <c r="B211" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E211" t="n">
         <v>7</v>
       </c>
       <c r="F211" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G211" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H211" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="212">
@@ -9059,7 +9041,7 @@
         <v>435</v>
       </c>
       <c r="B212" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C212" t="n">
         <v>13</v>
@@ -9074,10 +9056,10 @@
         <v>97</v>
       </c>
       <c r="G212" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H212" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="213">
@@ -9085,39 +9067,39 @@
         <v>435</v>
       </c>
       <c r="B213" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C213" t="n">
         <v>5</v>
       </c>
       <c r="D213" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E213" t="n">
         <v>7</v>
       </c>
       <c r="F213" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G213" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H213" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B214" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E214" t="n">
         <v>8</v>
@@ -9126,18 +9108,18 @@
         <v>206</v>
       </c>
       <c r="G214" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H214" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B215" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
@@ -9152,44 +9134,44 @@
         <v>220</v>
       </c>
       <c r="G215" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H215" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B216" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E216" t="n">
         <v>8</v>
       </c>
       <c r="F216" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G216" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H216" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B217" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C217" t="n">
         <v>13</v>
@@ -9204,24 +9186,24 @@
         <v>109</v>
       </c>
       <c r="G217" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H217" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B218" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
       </c>
       <c r="D218" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E218" t="n">
         <v>8</v>
@@ -9230,18 +9212,18 @@
         <v>109</v>
       </c>
       <c r="G218" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H218" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B219" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C219" t="n">
         <v>6</v>
@@ -9256,24 +9238,24 @@
         <v>240</v>
       </c>
       <c r="G219" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H219" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B220" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
       </c>
       <c r="D220" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E220" t="n">
         <v>8</v>
@@ -9282,50 +9264,50 @@
         <v>10</v>
       </c>
       <c r="G220" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H220" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B221" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E221" t="n">
         <v>8</v>
       </c>
       <c r="F221" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G221" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H221" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B222" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C222" t="n">
         <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E222" t="n">
         <v>8</v>
@@ -9334,24 +9316,24 @@
         <v>13</v>
       </c>
       <c r="G222" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H222" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B223" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C223" t="n">
         <v>6</v>
       </c>
       <c r="D223" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E223" t="n">
         <v>8</v>
@@ -9360,18 +9342,18 @@
         <v>13</v>
       </c>
       <c r="G223" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H223" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B224" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -9386,24 +9368,24 @@
         <v>13</v>
       </c>
       <c r="G224" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H224" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B225" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
       </c>
       <c r="D225" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E225" t="n">
         <v>8</v>
@@ -9412,24 +9394,24 @@
         <v>13</v>
       </c>
       <c r="G225" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H225" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B226" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
       </c>
       <c r="D226" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E226" t="n">
         <v>8</v>
@@ -9438,24 +9420,24 @@
         <v>13</v>
       </c>
       <c r="G226" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H226" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B227" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
       </c>
       <c r="D227" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E227" t="n">
         <v>8</v>
@@ -9464,18 +9446,18 @@
         <v>13</v>
       </c>
       <c r="G227" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H227" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B228" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
@@ -9490,24 +9472,24 @@
         <v>13</v>
       </c>
       <c r="G228" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H228" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B229" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
       </c>
       <c r="D229" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E229" t="n">
         <v>8</v>
@@ -9516,24 +9498,24 @@
         <v>123</v>
       </c>
       <c r="G229" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H229" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B230" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C230" t="n">
         <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E230" t="n">
         <v>8</v>
@@ -9542,24 +9524,24 @@
         <v>127</v>
       </c>
       <c r="G230" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H230" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B231" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E231" t="n">
         <v>8</v>
@@ -9568,24 +9550,24 @@
         <v>127</v>
       </c>
       <c r="G231" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H231" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B232" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E232" t="n">
         <v>8</v>
@@ -9594,24 +9576,24 @@
         <v>127</v>
       </c>
       <c r="G232" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H232" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B233" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
       </c>
       <c r="D233" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E233" t="n">
         <v>8</v>
@@ -9620,24 +9602,24 @@
         <v>127</v>
       </c>
       <c r="G233" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H233" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B234" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
       </c>
       <c r="D234" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E234" t="n">
         <v>8</v>
@@ -9646,44 +9628,44 @@
         <v>127</v>
       </c>
       <c r="G234" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H234" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B235" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C235" t="n">
         <v>2</v>
       </c>
       <c r="D235" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E235" t="n">
         <v>8</v>
       </c>
       <c r="F235" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G235" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H235" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B236" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C236" t="n">
         <v>8</v>
@@ -9698,18 +9680,18 @@
         <v>26</v>
       </c>
       <c r="G236" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H236" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B237" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
@@ -9724,18 +9706,18 @@
         <v>133</v>
       </c>
       <c r="G237" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H237" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B238" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -9750,18 +9732,18 @@
         <v>133</v>
       </c>
       <c r="G238" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H238" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B239" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -9776,24 +9758,24 @@
         <v>133</v>
       </c>
       <c r="G239" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H239" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B240" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
       </c>
       <c r="D240" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E240" t="n">
         <v>8</v>
@@ -9802,50 +9784,50 @@
         <v>133</v>
       </c>
       <c r="G240" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H240" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B241" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E241" t="n">
         <v>8</v>
       </c>
       <c r="F241" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G241" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H241" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B242" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
       </c>
       <c r="D242" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E242" t="n">
         <v>8</v>
@@ -9854,18 +9836,18 @@
         <v>146</v>
       </c>
       <c r="G242" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H242" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B243" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C243" t="n">
         <v>9</v>
@@ -9880,18 +9862,18 @@
         <v>146</v>
       </c>
       <c r="G243" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H243" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B244" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C244" t="n">
         <v>5</v>
@@ -9906,24 +9888,24 @@
         <v>29</v>
       </c>
       <c r="G244" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H244" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B245" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
       </c>
       <c r="D245" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E245" t="n">
         <v>8</v>
@@ -9932,24 +9914,24 @@
         <v>152</v>
       </c>
       <c r="G245" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H245" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B246" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
       </c>
       <c r="D246" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E246" t="n">
         <v>8</v>
@@ -9958,18 +9940,18 @@
         <v>152</v>
       </c>
       <c r="G246" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H246" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B247" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -9984,108 +9966,108 @@
         <v>295</v>
       </c>
       <c r="G247" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H247" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B248" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
       </c>
       <c r="D248" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E248" t="n">
         <v>8</v>
       </c>
       <c r="F248" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G248" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H248" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B249" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
       </c>
       <c r="D249" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E249" t="n">
         <v>8</v>
       </c>
       <c r="F249" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G249" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H249" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B250" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D250" t="s">
-        <v>714</v>
+        <v>314</v>
       </c>
       <c r="E250" t="n">
         <v>8</v>
       </c>
       <c r="F250" t="s">
+        <v>315</v>
+      </c>
+      <c r="G250" t="s">
         <v>715</v>
       </c>
-      <c r="G250" t="s">
-        <v>716</v>
-      </c>
       <c r="H250" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B251" t="s">
+        <v>716</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" t="s">
         <v>717</v>
-      </c>
-      <c r="C251" t="n">
-        <v>2</v>
-      </c>
-      <c r="D251" t="s">
-        <v>314</v>
       </c>
       <c r="E251" t="n">
         <v>8</v>
       </c>
       <c r="F251" t="s">
-        <v>315</v>
+        <v>52</v>
       </c>
       <c r="G251" t="s">
         <v>718</v>
@@ -10096,48 +10078,48 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B252" t="s">
         <v>719</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252" t="s">
-        <v>720</v>
+        <v>158</v>
       </c>
       <c r="E252" t="n">
         <v>8</v>
       </c>
       <c r="F252" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="G252" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H252" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B253" t="s">
+        <v>721</v>
+      </c>
+      <c r="C253" t="n">
+        <v>3</v>
+      </c>
+      <c r="D253" t="s">
         <v>722</v>
-      </c>
-      <c r="C253" t="n">
-        <v>2</v>
-      </c>
-      <c r="D253" t="s">
-        <v>158</v>
       </c>
       <c r="E253" t="n">
         <v>8</v>
       </c>
       <c r="F253" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="G253" t="s">
         <v>723</v>
@@ -10148,7 +10130,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B254" t="s">
         <v>724</v>
@@ -10174,13 +10156,13 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B255" t="s">
         <v>727</v>
       </c>
       <c r="C255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D255" t="s">
         <v>728</v>
@@ -10200,16 +10182,16 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B256" t="s">
         <v>730</v>
       </c>
       <c r="C256" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D256" t="s">
-        <v>731</v>
+        <v>54</v>
       </c>
       <c r="E256" t="n">
         <v>8</v>
@@ -10218,24 +10200,24 @@
         <v>55</v>
       </c>
       <c r="G256" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H256" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B257" t="s">
+        <v>732</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s">
         <v>733</v>
-      </c>
-      <c r="C257" t="n">
-        <v>25</v>
-      </c>
-      <c r="D257" t="s">
-        <v>54</v>
       </c>
       <c r="E257" t="n">
         <v>8</v>
@@ -10252,7 +10234,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B258" t="s">
         <v>735</v>
@@ -10278,13 +10260,13 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B259" t="s">
         <v>738</v>
       </c>
       <c r="C259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D259" t="s">
         <v>739</v>
@@ -10304,7 +10286,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B260" t="s">
         <v>741</v>
@@ -10313,59 +10295,59 @@
         <v>1</v>
       </c>
       <c r="D260" t="s">
-        <v>742</v>
+        <v>67</v>
       </c>
       <c r="E260" t="n">
         <v>8</v>
       </c>
       <c r="F260" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G260" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H260" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B261" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C261" t="n">
         <v>1</v>
       </c>
       <c r="D261" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="E261" t="n">
         <v>8</v>
       </c>
       <c r="F261" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="G261" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H261" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B262" t="s">
+        <v>745</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+      <c r="D262" t="s">
         <v>746</v>
-      </c>
-      <c r="C262" t="n">
-        <v>1</v>
-      </c>
-      <c r="D262" t="s">
-        <v>162</v>
       </c>
       <c r="E262" t="n">
         <v>8</v>
@@ -10382,16 +10364,16 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B263" t="s">
         <v>748</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D263" t="s">
-        <v>749</v>
+        <v>166</v>
       </c>
       <c r="E263" t="n">
         <v>8</v>
@@ -10400,24 +10382,24 @@
         <v>163</v>
       </c>
       <c r="G263" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H263" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B264" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C264" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D264" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E264" t="n">
         <v>8</v>
@@ -10426,50 +10408,50 @@
         <v>163</v>
       </c>
       <c r="G264" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H264" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B265" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
       </c>
       <c r="D265" t="s">
-        <v>169</v>
+        <v>345</v>
       </c>
       <c r="E265" t="n">
         <v>8</v>
       </c>
       <c r="F265" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="G265" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H265" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B266" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D266" t="s">
-        <v>345</v>
+        <v>73</v>
       </c>
       <c r="E266" t="n">
         <v>8</v>
@@ -10478,76 +10460,76 @@
         <v>71</v>
       </c>
       <c r="G266" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H266" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B267" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C267" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D267" t="s">
-        <v>73</v>
+        <v>555</v>
       </c>
       <c r="E267" t="n">
         <v>8</v>
       </c>
       <c r="F267" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="G267" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H267" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B268" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
       </c>
       <c r="D268" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E268" t="n">
         <v>8</v>
       </c>
       <c r="F268" t="s">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="G268" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H268" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B269" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D269" t="s">
-        <v>558</v>
+        <v>174</v>
       </c>
       <c r="E269" t="n">
         <v>8</v>
@@ -10556,30 +10538,30 @@
         <v>175</v>
       </c>
       <c r="G269" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H269" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B270" t="s">
+        <v>762</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+      <c r="D270" t="s">
         <v>763</v>
-      </c>
-      <c r="C270" t="n">
-        <v>5</v>
-      </c>
-      <c r="D270" t="s">
-        <v>174</v>
       </c>
       <c r="E270" t="n">
         <v>8</v>
       </c>
       <c r="F270" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="G270" t="s">
         <v>764</v>
@@ -10590,7 +10572,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B271" t="s">
         <v>765</v>
@@ -10605,53 +10587,53 @@
         <v>8</v>
       </c>
       <c r="F271" t="s">
-        <v>76</v>
+        <v>767</v>
       </c>
       <c r="G271" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H271" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B272" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C272" t="n">
         <v>1</v>
       </c>
       <c r="D272" t="s">
-        <v>769</v>
+        <v>377</v>
       </c>
       <c r="E272" t="n">
         <v>8</v>
       </c>
       <c r="F272" t="s">
+        <v>79</v>
+      </c>
+      <c r="G272" t="s">
         <v>770</v>
       </c>
-      <c r="G272" t="s">
-        <v>771</v>
-      </c>
       <c r="H272" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B273" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D273" t="s">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="E273" t="n">
         <v>8</v>
@@ -10660,56 +10642,56 @@
         <v>79</v>
       </c>
       <c r="G273" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H273" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B274" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C274" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D274" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E274" t="n">
         <v>8</v>
       </c>
       <c r="F274" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G274" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H274" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B275" t="s">
+        <v>775</v>
+      </c>
+      <c r="C275" t="n">
+        <v>6</v>
+      </c>
+      <c r="D275" t="s">
         <v>776</v>
-      </c>
-      <c r="C275" t="n">
-        <v>12</v>
-      </c>
-      <c r="D275" t="s">
-        <v>81</v>
       </c>
       <c r="E275" t="n">
         <v>8</v>
       </c>
       <c r="F275" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G275" t="s">
         <v>777</v>
@@ -10720,48 +10702,48 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B276" t="s">
         <v>778</v>
       </c>
       <c r="C276" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D276" t="s">
-        <v>779</v>
+        <v>396</v>
       </c>
       <c r="E276" t="n">
         <v>8</v>
       </c>
       <c r="F276" t="s">
-        <v>88</v>
+        <v>397</v>
       </c>
       <c r="G276" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H276" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B277" t="s">
+        <v>780</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+      <c r="D277" t="s">
         <v>781</v>
-      </c>
-      <c r="C277" t="n">
-        <v>1</v>
-      </c>
-      <c r="D277" t="s">
-        <v>396</v>
       </c>
       <c r="E277" t="n">
         <v>8</v>
       </c>
       <c r="F277" t="s">
-        <v>397</v>
+        <v>91</v>
       </c>
       <c r="G277" t="s">
         <v>782</v>
@@ -10772,68 +10754,68 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B278" t="s">
         <v>783</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D278" t="s">
-        <v>784</v>
+        <v>403</v>
       </c>
       <c r="E278" t="n">
         <v>8</v>
       </c>
       <c r="F278" t="s">
-        <v>91</v>
+        <v>404</v>
       </c>
       <c r="G278" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H278" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B279" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C279" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D279" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E279" t="n">
         <v>8</v>
       </c>
       <c r="F279" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G279" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H279" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B280" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
       </c>
       <c r="D280" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E280" t="n">
         <v>8</v>
@@ -10842,56 +10824,56 @@
         <v>408</v>
       </c>
       <c r="G280" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H280" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B281" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D281" t="s">
-        <v>411</v>
+        <v>93</v>
       </c>
       <c r="E281" t="n">
         <v>8</v>
       </c>
       <c r="F281" t="s">
-        <v>408</v>
+        <v>94</v>
       </c>
       <c r="G281" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H281" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B282" t="s">
+        <v>791</v>
+      </c>
+      <c r="C282" t="n">
+        <v>5</v>
+      </c>
+      <c r="D282" t="s">
         <v>792</v>
-      </c>
-      <c r="C282" t="n">
-        <v>7</v>
-      </c>
-      <c r="D282" t="s">
-        <v>93</v>
       </c>
       <c r="E282" t="n">
         <v>8</v>
       </c>
       <c r="F282" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="G282" t="s">
         <v>793</v>
@@ -10902,16 +10884,16 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B283" t="s">
         <v>794</v>
       </c>
       <c r="C283" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D283" t="s">
-        <v>795</v>
+        <v>187</v>
       </c>
       <c r="E283" t="n">
         <v>8</v>
@@ -10920,30 +10902,30 @@
         <v>188</v>
       </c>
       <c r="G283" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H283" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B284" t="s">
+        <v>796</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" t="s">
         <v>797</v>
-      </c>
-      <c r="C284" t="n">
-        <v>1</v>
-      </c>
-      <c r="D284" t="s">
-        <v>187</v>
       </c>
       <c r="E284" t="n">
         <v>8</v>
       </c>
       <c r="F284" t="s">
-        <v>188</v>
+        <v>417</v>
       </c>
       <c r="G284" t="s">
         <v>798</v>
@@ -10954,7 +10936,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B285" t="s">
         <v>799</v>
@@ -10963,91 +10945,91 @@
         <v>1</v>
       </c>
       <c r="D285" t="s">
-        <v>800</v>
+        <v>599</v>
       </c>
       <c r="E285" t="n">
         <v>8</v>
       </c>
       <c r="F285" t="s">
-        <v>417</v>
+        <v>600</v>
       </c>
       <c r="G285" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H285" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B286" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
       </c>
       <c r="D286" t="s">
-        <v>598</v>
+        <v>96</v>
       </c>
       <c r="E286" t="n">
         <v>8</v>
       </c>
       <c r="F286" t="s">
-        <v>599</v>
+        <v>97</v>
       </c>
       <c r="G286" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H286" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B287" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C287" t="n">
         <v>1</v>
       </c>
       <c r="D287" t="s">
-        <v>96</v>
+        <v>609</v>
       </c>
       <c r="E287" t="n">
         <v>8</v>
       </c>
       <c r="F287" t="s">
-        <v>97</v>
+        <v>610</v>
       </c>
       <c r="G287" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H287" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B288" t="s">
+        <v>805</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+      <c r="D288" t="s">
         <v>806</v>
-      </c>
-      <c r="C288" t="n">
-        <v>1</v>
-      </c>
-      <c r="D288" t="s">
-        <v>608</v>
       </c>
       <c r="E288" t="n">
         <v>8</v>
       </c>
       <c r="F288" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G288" t="s">
         <v>807</v>
@@ -11058,22 +11040,22 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>611</v>
+        <v>808</v>
       </c>
       <c r="B289" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C289" t="n">
         <v>1</v>
       </c>
       <c r="D289" t="s">
-        <v>809</v>
+        <v>614</v>
       </c>
       <c r="E289" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F289" t="s">
-        <v>609</v>
+        <v>206</v>
       </c>
       <c r="G289" t="s">
         <v>810</v>
@@ -11084,22 +11066,22 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
+        <v>808</v>
+      </c>
+      <c r="B290" t="s">
         <v>811</v>
       </c>
-      <c r="B290" t="s">
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
         <v>812</v>
-      </c>
-      <c r="C290" t="n">
-        <v>1</v>
-      </c>
-      <c r="D290" t="s">
-        <v>613</v>
       </c>
       <c r="E290" t="n">
         <v>9</v>
       </c>
       <c r="F290" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="G290" t="s">
         <v>813</v>
@@ -11110,7 +11092,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B291" t="s">
         <v>814</v>
@@ -11119,39 +11101,39 @@
         <v>1</v>
       </c>
       <c r="D291" t="s">
-        <v>815</v>
+        <v>235</v>
       </c>
       <c r="E291" t="n">
         <v>9</v>
       </c>
       <c r="F291" t="s">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="G291" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H291" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B292" t="s">
+        <v>816</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+      <c r="D292" t="s">
         <v>817</v>
-      </c>
-      <c r="C292" t="n">
-        <v>1</v>
-      </c>
-      <c r="D292" t="s">
-        <v>235</v>
       </c>
       <c r="E292" t="n">
         <v>9</v>
       </c>
       <c r="F292" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="G292" t="s">
         <v>818</v>
@@ -11162,13 +11144,13 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B293" t="s">
         <v>819</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D293" t="s">
         <v>820</v>
@@ -11177,7 +11159,7 @@
         <v>9</v>
       </c>
       <c r="F293" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G293" t="s">
         <v>821</v>
@@ -11188,13 +11170,13 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B294" t="s">
         <v>822</v>
       </c>
       <c r="C294" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D294" t="s">
         <v>823</v>
@@ -11214,16 +11196,16 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B295" t="s">
         <v>825</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D295" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="E295" t="n">
         <v>9</v>
@@ -11232,41 +11214,41 @@
         <v>13</v>
       </c>
       <c r="G295" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="H295" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B296" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C296" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D296" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="E296" t="n">
         <v>9</v>
       </c>
       <c r="F296" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="G296" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="H296" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B297" t="s">
         <v>829</v>
@@ -11275,7 +11257,7 @@
         <v>1</v>
       </c>
       <c r="D297" t="s">
-        <v>830</v>
+        <v>665</v>
       </c>
       <c r="E297" t="n">
         <v>9</v>
@@ -11284,50 +11266,50 @@
         <v>127</v>
       </c>
       <c r="G297" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H297" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B298" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D298" t="s">
-        <v>664</v>
+        <v>142</v>
       </c>
       <c r="E298" t="n">
         <v>9</v>
       </c>
       <c r="F298" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G298" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H298" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B299" t="s">
+        <v>833</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" t="s">
         <v>834</v>
-      </c>
-      <c r="C299" t="n">
-        <v>54</v>
-      </c>
-      <c r="D299" t="s">
-        <v>142</v>
       </c>
       <c r="E299" t="n">
         <v>9</v>
@@ -11344,7 +11326,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B300" t="s">
         <v>836</v>
@@ -11370,16 +11352,16 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B301" t="s">
         <v>839</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D301" t="s">
-        <v>840</v>
+        <v>142</v>
       </c>
       <c r="E301" t="n">
         <v>9</v>
@@ -11388,82 +11370,82 @@
         <v>133</v>
       </c>
       <c r="G301" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="H301" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B302" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C302" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D302" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="E302" t="n">
         <v>9</v>
       </c>
       <c r="F302" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="G302" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="H302" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B303" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D303" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="E303" t="n">
         <v>9</v>
       </c>
       <c r="F303" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="G303" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H303" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>811</v>
+        <v>844</v>
       </c>
       <c r="B304" t="s">
         <v>845</v>
       </c>
       <c r="C304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D304" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="E304" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="G304" t="s">
         <v>846</v>
@@ -11474,22 +11456,22 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
+        <v>844</v>
+      </c>
+      <c r="B305" t="s">
         <v>847</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C305" t="n">
+        <v>2</v>
+      </c>
+      <c r="D305" t="s">
         <v>848</v>
-      </c>
-      <c r="C305" t="n">
-        <v>1</v>
-      </c>
-      <c r="D305" t="s">
-        <v>205</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G305" t="s">
         <v>849</v>
@@ -11500,48 +11482,48 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B306" t="s">
         <v>850</v>
       </c>
       <c r="C306" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D306" t="s">
-        <v>851</v>
+        <v>219</v>
       </c>
       <c r="E306" t="n">
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="G306" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H306" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B307" t="s">
+        <v>852</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2</v>
+      </c>
+      <c r="D307" t="s">
         <v>853</v>
-      </c>
-      <c r="C307" t="n">
-        <v>4</v>
-      </c>
-      <c r="D307" t="s">
-        <v>219</v>
       </c>
       <c r="E307" t="n">
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>220</v>
+        <v>620</v>
       </c>
       <c r="G307" t="s">
         <v>854</v>
@@ -11552,68 +11534,68 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B308" t="s">
         <v>855</v>
       </c>
       <c r="C308" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D308" t="s">
-        <v>856</v>
+        <v>619</v>
       </c>
       <c r="E308" t="n">
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G308" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H308" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B309" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C309" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D309" t="s">
-        <v>618</v>
+        <v>108</v>
       </c>
       <c r="E309" t="n">
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>619</v>
+        <v>109</v>
       </c>
       <c r="G309" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H309" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B310" t="s">
+        <v>859</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" t="s">
         <v>860</v>
-      </c>
-      <c r="C310" t="n">
-        <v>2</v>
-      </c>
-      <c r="D310" t="s">
-        <v>108</v>
       </c>
       <c r="E310" t="n">
         <v>10</v>
@@ -11630,7 +11612,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B311" t="s">
         <v>862</v>
@@ -11656,7 +11638,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B312" t="s">
         <v>865</v>
@@ -11665,7 +11647,7 @@
         <v>1</v>
       </c>
       <c r="D312" t="s">
-        <v>866</v>
+        <v>625</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -11674,82 +11656,82 @@
         <v>109</v>
       </c>
       <c r="G312" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H312" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B313" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D313" t="s">
-        <v>624</v>
+        <v>235</v>
       </c>
       <c r="E313" t="n">
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="G313" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H313" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B314" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C314" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D314" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E314" t="n">
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G314" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H314" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B315" t="s">
+        <v>871</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="s">
         <v>872</v>
-      </c>
-      <c r="C315" t="n">
-        <v>9</v>
-      </c>
-      <c r="D315" t="s">
-        <v>246</v>
       </c>
       <c r="E315" t="n">
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="G315" t="s">
         <v>873</v>
@@ -11760,7 +11742,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B316" t="s">
         <v>874</v>
@@ -11786,7 +11768,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B317" t="s">
         <v>877</v>
@@ -11812,13 +11794,13 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B318" t="s">
         <v>880</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D318" t="s">
         <v>881</v>
@@ -11827,7 +11809,7 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="G318" t="s">
         <v>882</v>
@@ -11838,7 +11820,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B319" t="s">
         <v>883</v>
@@ -11847,39 +11829,39 @@
         <v>3</v>
       </c>
       <c r="D319" t="s">
-        <v>884</v>
+        <v>633</v>
       </c>
       <c r="E319" t="n">
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>256</v>
+        <v>634</v>
       </c>
       <c r="G319" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H319" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B320" t="s">
+        <v>885</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2</v>
+      </c>
+      <c r="D320" t="s">
         <v>886</v>
-      </c>
-      <c r="C320" t="n">
-        <v>3</v>
-      </c>
-      <c r="D320" t="s">
-        <v>632</v>
       </c>
       <c r="E320" t="n">
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>633</v>
+        <v>113</v>
       </c>
       <c r="G320" t="s">
         <v>887</v>
@@ -11890,13 +11872,13 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B321" t="s">
         <v>888</v>
       </c>
       <c r="C321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D321" t="s">
         <v>889</v>
@@ -11916,68 +11898,68 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B322" t="s">
         <v>891</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D322" t="s">
-        <v>892</v>
+        <v>454</v>
       </c>
       <c r="E322" t="n">
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G322" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H322" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B323" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C323" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D323" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E323" t="n">
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="G323" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H323" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B324" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D324" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E324" t="n">
         <v>10</v>
@@ -11986,24 +11968,24 @@
         <v>13</v>
       </c>
       <c r="G324" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H324" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B325" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C325" t="n">
         <v>1</v>
       </c>
       <c r="D325" t="s">
-        <v>460</v>
+        <v>283</v>
       </c>
       <c r="E325" t="n">
         <v>10</v>
@@ -12012,30 +11994,30 @@
         <v>13</v>
       </c>
       <c r="G325" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H325" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B326" t="s">
+        <v>899</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+      <c r="D326" t="s">
         <v>900</v>
-      </c>
-      <c r="C326" t="n">
-        <v>1</v>
-      </c>
-      <c r="D326" t="s">
-        <v>283</v>
       </c>
       <c r="E326" t="n">
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G326" t="s">
         <v>901</v>
@@ -12046,13 +12028,13 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B327" t="s">
         <v>902</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D327" t="s">
         <v>903</v>
@@ -12061,7 +12043,7 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G327" t="s">
         <v>904</v>
@@ -12072,13 +12054,13 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B328" t="s">
         <v>905</v>
       </c>
       <c r="C328" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D328" t="s">
         <v>906</v>
@@ -12098,13 +12080,13 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B329" t="s">
         <v>908</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D329" t="s">
         <v>909</v>
@@ -12124,13 +12106,13 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B330" t="s">
         <v>911</v>
       </c>
       <c r="C330" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D330" t="s">
         <v>912</v>
@@ -12150,13 +12132,13 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B331" t="s">
         <v>914</v>
       </c>
       <c r="C331" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D331" t="s">
         <v>915</v>
@@ -12165,7 +12147,7 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="G331" t="s">
         <v>916</v>
@@ -12176,16 +12158,16 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B332" t="s">
         <v>917</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D332" t="s">
-        <v>918</v>
+        <v>25</v>
       </c>
       <c r="E332" t="n">
         <v>10</v>
@@ -12194,56 +12176,56 @@
         <v>26</v>
       </c>
       <c r="G332" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H332" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B333" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C333" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D333" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="E333" t="n">
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="G333" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H333" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B334" t="s">
+        <v>921</v>
+      </c>
+      <c r="C334" t="n">
+        <v>3</v>
+      </c>
+      <c r="D334" t="s">
         <v>922</v>
-      </c>
-      <c r="C334" t="n">
-        <v>1</v>
-      </c>
-      <c r="D334" t="s">
-        <v>132</v>
       </c>
       <c r="E334" t="n">
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>133</v>
+        <v>479</v>
       </c>
       <c r="G334" t="s">
         <v>923</v>
@@ -12254,13 +12236,13 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B335" t="s">
         <v>924</v>
       </c>
       <c r="C335" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D335" t="s">
         <v>925</v>
@@ -12269,7 +12251,7 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>479</v>
+        <v>690</v>
       </c>
       <c r="G335" t="s">
         <v>926</v>
@@ -12280,126 +12262,126 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B336" t="s">
         <v>927</v>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D336" t="s">
-        <v>928</v>
+        <v>28</v>
       </c>
       <c r="E336" t="n">
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>689</v>
+        <v>29</v>
       </c>
       <c r="G336" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H336" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B337" t="s">
+        <v>929</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+      <c r="D337" t="s">
         <v>930</v>
-      </c>
-      <c r="C337" t="n">
-        <v>4</v>
-      </c>
-      <c r="D337" t="s">
-        <v>28</v>
       </c>
       <c r="E337" t="n">
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>29</v>
+        <v>931</v>
       </c>
       <c r="G337" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H337" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B338" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D338" t="s">
-        <v>933</v>
+        <v>712</v>
       </c>
       <c r="E338" t="n">
         <v>10</v>
       </c>
       <c r="F338" t="s">
+        <v>709</v>
+      </c>
+      <c r="G338" t="s">
         <v>934</v>
       </c>
-      <c r="G338" t="s">
-        <v>935</v>
-      </c>
       <c r="H338" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B339" t="s">
+        <v>935</v>
+      </c>
+      <c r="C339" t="n">
+        <v>88</v>
+      </c>
+      <c r="D339" t="s">
         <v>936</v>
-      </c>
-      <c r="C339" t="n">
-        <v>3</v>
-      </c>
-      <c r="D339" t="s">
-        <v>711</v>
       </c>
       <c r="E339" t="n">
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>708</v>
+        <v>937</v>
       </c>
       <c r="G339" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H339" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B340" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
       </c>
       <c r="D340" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E340" t="n">
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="G340" t="s">
         <v>941</v>
@@ -12410,13 +12392,13 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B341" t="s">
         <v>942</v>
       </c>
       <c r="C341" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="D341" t="s">
         <v>943</v>
@@ -12425,267 +12407,267 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
+        <v>937</v>
+      </c>
+      <c r="G341" t="s">
         <v>944</v>
       </c>
-      <c r="G341" t="s">
-        <v>945</v>
-      </c>
       <c r="H341" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B342" t="s">
+        <v>945</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1</v>
+      </c>
+      <c r="D342" t="s">
         <v>946</v>
-      </c>
-      <c r="C342" t="n">
-        <v>1</v>
-      </c>
-      <c r="D342" t="s">
-        <v>947</v>
       </c>
       <c r="E342" t="n">
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="G342" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H342" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B343" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D343" t="s">
-        <v>950</v>
+        <v>717</v>
       </c>
       <c r="E343" t="n">
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>944</v>
+        <v>52</v>
       </c>
       <c r="G343" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H343" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B344" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D344" t="s">
-        <v>953</v>
+        <v>158</v>
       </c>
       <c r="E344" t="n">
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>944</v>
+        <v>159</v>
       </c>
       <c r="G344" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="H344" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B345" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C345" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D345" t="s">
-        <v>720</v>
+        <v>953</v>
       </c>
       <c r="E345" t="n">
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G345" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H345" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B346" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C346" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D346" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="E346" t="n">
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="G346" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H346" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B347" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C347" t="n">
         <v>1</v>
       </c>
       <c r="D347" t="s">
-        <v>960</v>
+        <v>166</v>
       </c>
       <c r="E347" t="n">
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="G347" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="H347" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B348" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C348" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D348" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="E348" t="n">
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="G348" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="H348" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B349" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D349" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="E349" t="n">
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="G349" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="H349" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B350" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C350" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D350" t="s">
-        <v>169</v>
+        <v>964</v>
       </c>
       <c r="E350" t="n">
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>163</v>
+        <v>965</v>
       </c>
       <c r="G350" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H350" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B351" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C351" t="n">
         <v>3</v>
       </c>
       <c r="D351" t="s">
-        <v>73</v>
+        <v>968</v>
       </c>
       <c r="E351" t="n">
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>71</v>
+        <v>965</v>
       </c>
       <c r="G351" t="s">
         <v>969</v>
@@ -12696,13 +12678,13 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B352" t="s">
         <v>970</v>
       </c>
       <c r="C352" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D352" t="s">
         <v>971</v>
@@ -12711,313 +12693,313 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
+        <v>965</v>
+      </c>
+      <c r="G352" t="s">
         <v>972</v>
       </c>
-      <c r="G352" t="s">
-        <v>973</v>
-      </c>
       <c r="H352" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B353" t="s">
+        <v>973</v>
+      </c>
+      <c r="C353" t="n">
+        <v>8</v>
+      </c>
+      <c r="D353" t="s">
         <v>974</v>
-      </c>
-      <c r="C353" t="n">
-        <v>3</v>
-      </c>
-      <c r="D353" t="s">
-        <v>975</v>
       </c>
       <c r="E353" t="n">
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="G353" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H353" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B354" t="s">
+        <v>976</v>
+      </c>
+      <c r="C354" t="n">
+        <v>25</v>
+      </c>
+      <c r="D354" t="s">
         <v>977</v>
-      </c>
-      <c r="C354" t="n">
-        <v>1</v>
-      </c>
-      <c r="D354" t="s">
-        <v>978</v>
       </c>
       <c r="E354" t="n">
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="G354" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H354" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B355" t="s">
+        <v>979</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1</v>
+      </c>
+      <c r="D355" t="s">
         <v>980</v>
-      </c>
-      <c r="C355" t="n">
-        <v>8</v>
-      </c>
-      <c r="D355" t="s">
-        <v>981</v>
       </c>
       <c r="E355" t="n">
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>972</v>
+        <v>351</v>
       </c>
       <c r="G355" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H355" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B356" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C356" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D356" t="s">
-        <v>984</v>
+        <v>361</v>
       </c>
       <c r="E356" t="n">
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>972</v>
+        <v>355</v>
       </c>
       <c r="G356" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H356" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B357" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C357" t="n">
         <v>1</v>
       </c>
       <c r="D357" t="s">
-        <v>987</v>
+        <v>561</v>
       </c>
       <c r="E357" t="n">
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="G357" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="H357" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B358" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D358" t="s">
-        <v>361</v>
+        <v>174</v>
       </c>
       <c r="E358" t="n">
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>355</v>
+        <v>175</v>
       </c>
       <c r="G358" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="H358" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B359" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
       </c>
       <c r="D359" t="s">
-        <v>561</v>
+        <v>75</v>
       </c>
       <c r="E359" t="n">
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="G359" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="H359" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B360" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C360" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D360" t="s">
-        <v>174</v>
+        <v>763</v>
       </c>
       <c r="E360" t="n">
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="G360" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="H360" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B361" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C361" t="n">
         <v>1</v>
       </c>
       <c r="D361" t="s">
-        <v>75</v>
+        <v>993</v>
       </c>
       <c r="E361" t="n">
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>76</v>
+        <v>767</v>
       </c>
       <c r="G361" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H361" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B362" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D362" t="s">
-        <v>766</v>
+        <v>996</v>
       </c>
       <c r="E362" t="n">
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G362" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H362" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B363" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C363" t="n">
         <v>1</v>
       </c>
       <c r="D363" t="s">
-        <v>1000</v>
+        <v>377</v>
       </c>
       <c r="E363" t="n">
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>770</v>
+        <v>79</v>
       </c>
       <c r="G363" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H363" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B364" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C364" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D364" t="s">
-        <v>1003</v>
+        <v>78</v>
       </c>
       <c r="E364" t="n">
         <v>10</v>
@@ -13026,518 +13008,518 @@
         <v>79</v>
       </c>
       <c r="G364" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H364" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B365" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D365" t="s">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="E365" t="n">
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G365" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="H365" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B366" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C366" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D366" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E366" t="n">
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G366" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="H366" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B367" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C367" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D367" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="E367" t="n">
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G367" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="H367" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B368" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C368" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D368" t="s">
-        <v>84</v>
+        <v>1009</v>
       </c>
       <c r="E368" t="n">
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>85</v>
+        <v>579</v>
       </c>
       <c r="G368" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H368" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B369" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D369" t="s">
-        <v>182</v>
+        <v>396</v>
       </c>
       <c r="E369" t="n">
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>85</v>
+        <v>397</v>
       </c>
       <c r="G369" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H369" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B370" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D370" t="s">
-        <v>1016</v>
+        <v>403</v>
       </c>
       <c r="E370" t="n">
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>579</v>
+        <v>404</v>
       </c>
       <c r="G370" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="H370" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B371" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C371" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D371" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="E371" t="n">
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="G371" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="H371" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B372" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C372" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D372" t="s">
-        <v>403</v>
+        <v>93</v>
       </c>
       <c r="E372" t="n">
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>404</v>
+        <v>94</v>
       </c>
       <c r="G372" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="H372" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B373" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C373" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D373" t="s">
-        <v>407</v>
+        <v>603</v>
       </c>
       <c r="E373" t="n">
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>408</v>
+        <v>604</v>
       </c>
       <c r="G373" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="H373" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B374" t="s">
-        <v>792</v>
+        <v>1021</v>
       </c>
       <c r="C374" t="n">
         <v>1</v>
       </c>
       <c r="D374" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E374" t="n">
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G374" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="H374" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>847</v>
+        <v>1023</v>
       </c>
       <c r="B375" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C375" t="n">
+        <v>2</v>
+      </c>
+      <c r="D375" t="s">
+        <v>235</v>
+      </c>
+      <c r="E375" t="n">
+        <v>11</v>
+      </c>
+      <c r="F375" t="s">
+        <v>236</v>
+      </c>
+      <c r="G375" t="s">
         <v>1025</v>
       </c>
-      <c r="C375" t="n">
-        <v>1</v>
-      </c>
-      <c r="D375" t="s">
-        <v>602</v>
-      </c>
-      <c r="E375" t="n">
-        <v>10</v>
-      </c>
-      <c r="F375" t="s">
-        <v>603</v>
-      </c>
-      <c r="G375" t="s">
-        <v>1026</v>
-      </c>
       <c r="H375" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>847</v>
+        <v>1023</v>
       </c>
       <c r="B376" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C376" t="n">
+        <v>1</v>
+      </c>
+      <c r="D376" t="s">
+        <v>301</v>
+      </c>
+      <c r="E376" t="n">
+        <v>11</v>
+      </c>
+      <c r="F376" t="s">
+        <v>36</v>
+      </c>
+      <c r="G376" t="s">
         <v>1027</v>
       </c>
-      <c r="C376" t="n">
-        <v>1</v>
-      </c>
-      <c r="D376" t="s">
-        <v>96</v>
-      </c>
-      <c r="E376" t="n">
-        <v>10</v>
-      </c>
-      <c r="F376" t="s">
-        <v>97</v>
-      </c>
-      <c r="G376" t="s">
-        <v>1028</v>
-      </c>
       <c r="H376" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B377" t="s">
         <v>1029</v>
       </c>
-      <c r="B377" t="s">
+      <c r="C377" t="n">
+        <v>1</v>
+      </c>
+      <c r="D377" t="s">
+        <v>216</v>
+      </c>
+      <c r="E377" t="n">
+        <v>12</v>
+      </c>
+      <c r="F377" t="s">
+        <v>213</v>
+      </c>
+      <c r="G377" t="s">
         <v>1030</v>
       </c>
-      <c r="C377" t="n">
-        <v>2</v>
-      </c>
-      <c r="D377" t="s">
-        <v>235</v>
-      </c>
-      <c r="E377" t="n">
-        <v>11</v>
-      </c>
-      <c r="F377" t="s">
-        <v>236</v>
-      </c>
-      <c r="G377" t="s">
-        <v>1031</v>
-      </c>
       <c r="H377" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B378" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C378" t="n">
+        <v>1</v>
+      </c>
+      <c r="D378" t="s">
+        <v>219</v>
+      </c>
+      <c r="E378" t="n">
+        <v>12</v>
+      </c>
+      <c r="F378" t="s">
+        <v>220</v>
+      </c>
+      <c r="G378" t="s">
         <v>1032</v>
       </c>
-      <c r="C378" t="n">
-        <v>1</v>
-      </c>
-      <c r="D378" t="s">
-        <v>301</v>
-      </c>
-      <c r="E378" t="n">
-        <v>11</v>
-      </c>
-      <c r="F378" t="s">
-        <v>36</v>
-      </c>
-      <c r="G378" t="s">
-        <v>1033</v>
-      </c>
       <c r="H378" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C379" t="n">
+        <v>3</v>
+      </c>
+      <c r="D379" t="s">
         <v>1034</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C379" t="n">
-        <v>1</v>
-      </c>
-      <c r="D379" t="s">
-        <v>216</v>
       </c>
       <c r="E379" t="n">
         <v>12</v>
       </c>
       <c r="F379" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="G379" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H379" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B380" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D380" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="E380" t="n">
         <v>12</v>
       </c>
       <c r="F380" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="G380" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H380" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B381" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C381" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D381" t="s">
-        <v>1040</v>
+        <v>235</v>
       </c>
       <c r="E381" t="n">
         <v>12</v>
       </c>
       <c r="F381" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="G381" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="H381" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B382" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C382" t="n">
         <v>2</v>
       </c>
       <c r="D382" t="s">
-        <v>108</v>
+        <v>1041</v>
       </c>
       <c r="E382" t="n">
         <v>12</v>
       </c>
       <c r="F382" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G382" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H382" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B383" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D383" t="s">
-        <v>235</v>
+        <v>878</v>
       </c>
       <c r="E383" t="n">
         <v>12</v>
       </c>
       <c r="F383" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="G383" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H383" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B384" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D384" t="s">
-        <v>1047</v>
+        <v>630</v>
       </c>
       <c r="E384" t="n">
         <v>12</v>
@@ -13546,108 +13528,108 @@
         <v>10</v>
       </c>
       <c r="G384" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="H384" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B385" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D385" t="s">
-        <v>881</v>
+        <v>1048</v>
       </c>
       <c r="E385" t="n">
         <v>12</v>
       </c>
       <c r="F385" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="G385" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H385" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B386" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C386" t="n">
         <v>1</v>
       </c>
       <c r="D386" t="s">
-        <v>629</v>
+        <v>116</v>
       </c>
       <c r="E386" t="n">
         <v>12</v>
       </c>
       <c r="F386" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G386" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H386" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B387" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C387" t="n">
+        <v>3</v>
+      </c>
+      <c r="D387" t="s">
         <v>1053</v>
-      </c>
-      <c r="C387" t="n">
-        <v>1</v>
-      </c>
-      <c r="D387" t="s">
-        <v>1054</v>
       </c>
       <c r="E387" t="n">
         <v>12</v>
       </c>
       <c r="F387" t="s">
-        <v>256</v>
+        <v>127</v>
       </c>
       <c r="G387" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H387" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B388" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C388" t="n">
+        <v>1</v>
+      </c>
+      <c r="D388" t="s">
         <v>1056</v>
-      </c>
-      <c r="C388" t="n">
-        <v>1</v>
-      </c>
-      <c r="D388" t="s">
-        <v>116</v>
       </c>
       <c r="E388" t="n">
         <v>12</v>
       </c>
       <c r="F388" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="G388" t="s">
         <v>1057</v>
@@ -13658,184 +13640,132 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B389" t="s">
         <v>1058</v>
       </c>
       <c r="C389" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D389" t="s">
-        <v>1059</v>
+        <v>301</v>
       </c>
       <c r="E389" t="n">
         <v>12</v>
       </c>
       <c r="F389" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="G389" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H389" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B390" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C390" t="n">
         <v>1</v>
       </c>
       <c r="D390" t="s">
-        <v>1062</v>
+        <v>174</v>
       </c>
       <c r="E390" t="n">
         <v>12</v>
       </c>
       <c r="F390" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="G390" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="H390" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B391" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D391" t="s">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="E391" t="n">
         <v>12</v>
       </c>
       <c r="F391" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="G391" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H391" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B392" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
       </c>
       <c r="D392" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="E392" t="n">
         <v>12</v>
       </c>
       <c r="F392" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="G392" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H392" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B393" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C393" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D393" t="s">
-        <v>78</v>
+        <v>1067</v>
       </c>
       <c r="E393" t="n">
         <v>12</v>
       </c>
       <c r="F393" t="s">
-        <v>79</v>
+        <v>571</v>
       </c>
       <c r="G393" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H393" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C394" t="n">
-        <v>1</v>
-      </c>
-      <c r="D394" t="s">
-        <v>81</v>
-      </c>
-      <c r="E394" t="n">
-        <v>12</v>
-      </c>
-      <c r="F394" t="s">
-        <v>82</v>
-      </c>
-      <c r="G394" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H394" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B395" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C395" t="n">
-        <v>1</v>
-      </c>
-      <c r="D395" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E395" t="n">
-        <v>12</v>
-      </c>
-      <c r="F395" t="s">
-        <v>571</v>
-      </c>
-      <c r="G395" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H395" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
